--- a/テスト/結合テストチェックリスト.xlsx
+++ b/テスト/結合テストチェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E64BBB-D823-4BBF-B3C1-9C16BF51BF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF74BB1-66DC-4E5B-84F5-D0658C83AB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -5481,185 +5481,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[社員番号]値=999999
-[氏名]値=テスト用CL君
-[生年月日]値=2003-01-01
-[年齢]値=20
-[入社日]値=2023-04-01
-[勤続年数]値=0
-[学歴]値=専門卒(3年)
-[基本給]値=220000
-[総合計]pt=19,Expt=3
-[取得タイトル]
-値=応用情報,pt=0,Expt=2
-[社会人歴(中途)]IT=1,IT以外=1
-[IT経験]値=4
-[IT以外経験]値=2
-[現在]値=0
-[前々年度]
-[1]年月=-,pt=-,Expt=-
-[2]年月=-,pt=-,Expt=-
-[前年度]
-[1]年月=-,pt=-,Expt=-
-[2]年月=-,pt=-,Expt=-
-[今年度]
-[1]年月=2023-9,pt=0,Expt=0
-[2]年月=-,pt=-,Expt=-
-[過去三年の合計]pt=-,Expt=-
-[総合計]pt=0,Expt=0</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>クン</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>キンゾク</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ネンスウ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="91" eb="94">
-      <t>センモンソツ</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="100" eb="103">
-      <t>キホンキュウ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="114" eb="117">
-      <t>ソウゴウケイ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>オウヨウ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>シャカイ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>ジンレキ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>チュウト</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="196" eb="198">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="199" eb="200">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="207" eb="208">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>マエマエ</t>
-    </rPh>
-    <rPh sb="214" eb="215">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="215" eb="216">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="221" eb="223">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="259" eb="260">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="260" eb="261">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="261" eb="262">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="305" eb="308">
-      <t>コンネンド</t>
-    </rPh>
-    <rPh sb="356" eb="360">
-      <t>カコサンネン</t>
-    </rPh>
-    <rPh sb="361" eb="363">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="377" eb="380">
-      <t>ソウゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[評価出力]ボタン押下時
 画面読み込み時に表示した情報をCSVファイルに変換して出力</t>
     <rPh sb="1" eb="3">
@@ -5843,185 +5664,6 @@
     </rPh>
     <rPh sb="240" eb="241">
       <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員番号]値=999999
-[氏名]値=テスト用CL君
-[生年月日]値=1993-01-01
-[年齢]値=30
-[入社日]値=2013-04-01
-[勤続年数]値=10
-[学歴]値=専門卒(4年)
-[基本給]値=156000
-[総合計]pt=39,Expt=2
-[取得タイトル]
-値=PL経験2回,pt=2,Expt=1
-[社会人歴(中途)]IT=3,IT以外=4
-[IT経験]値=12
-[IT以外経験]値=8
-[現在]値=
-[前々年度]
-[1]年月=-,pt=-,Expt=-
-[2]年月=-,pt=-,Expt=-
-[前年度]
-[1]年月=-,pt=-,Expt=-
-[2]年月=-,pt=-,Expt=-
-[今年度]
-[1]年月=2023-9,pt=0,Expt=0
-[2]年月=-,pt=-,Expt=-
-[過去三年の合計]pt=-,Expt=-
-[総合計]pt=0,Expt=0</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>クン</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>キンゾク</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ネンスウ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="92" eb="95">
-      <t>センモンソツ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="101" eb="104">
-      <t>キホンキュウ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="115" eb="118">
-      <t>ソウゴウケイ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>シャカイ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>ジンレキ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>チュウト</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="203" eb="204">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="208" eb="210">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="211" eb="212">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>マエマエ</t>
-    </rPh>
-    <rPh sb="217" eb="218">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="218" eb="219">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="224" eb="226">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="262" eb="263">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="263" eb="264">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="264" eb="265">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="308" eb="311">
-      <t>コンネンド</t>
-    </rPh>
-    <rPh sb="359" eb="363">
-      <t>カコサンネン</t>
-    </rPh>
-    <rPh sb="364" eb="366">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="380" eb="383">
-      <t>ソウゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6148,176 +5790,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[社員番号]値=999999
-[氏名]値=テスト用CL君
-[生年月日]値=2005-01-01
-[年齢]値=18
-[入社日]値=2020-04-01
-[勤続年数]値=3
-[学歴]値=高卒
-[基本給]値=235000
-[総合計]pt=35,Expt=2
-[取得タイトル]
-値=プロジェクトマネージャー,pt=0,Expt=2
-[社会人歴(中途)]IT=6,IT以外=2
-[IT経験]値=24
-[IT以外経験]値=4
-[現在]値=4
-[前々年度]
-[1]年月=-,pt=-,Expt=-
-[2]年月=-,pt=-,Expt=-
-[前年度]
-[1]年月=2022-09,pt=2,Expt=-
-[2]年月=-,pt=-,Expt=-
-[今年度]
-[1]年月=2023-09,pt=0,Expt=0
-[2]年月=-,pt=-,Expt=-
-[過去三年の合計]pt=-,Expt=-
-[総合計]pt=2,Expt=0</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>クン</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>キンゾク</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ネンスウ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>コウソツ</t>
-    </rPh>
-    <rPh sb="95" eb="98">
-      <t>キホンキュウ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="109" eb="112">
-      <t>ソウゴウケイ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>シャカイ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>ジンレキ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>チュウト</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="203" eb="204">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="208" eb="210">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="211" eb="212">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="216" eb="218">
-      <t>マエマエ</t>
-    </rPh>
-    <rPh sb="218" eb="219">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="219" eb="220">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="263" eb="264">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="264" eb="265">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="265" eb="266">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="315" eb="318">
-      <t>コンネンド</t>
-    </rPh>
-    <rPh sb="367" eb="371">
-      <t>カコサンネン</t>
-    </rPh>
-    <rPh sb="372" eb="374">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="388" eb="391">
-      <t>ソウゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;CSVファイルの中身&gt;
 999999,テスト用CL君,2005/1/1,
 18,2020/4/1,3,高卒,
@@ -6448,182 +5920,6 @@
     </rPh>
     <rPh sb="244" eb="245">
       <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員番号]値=999999
-[氏名]値=テスト用CL君
-[生年月日]値=1992-12-01
-[年齢]値=30
-[入社日]値=2020-04-01
-[勤続年数]値=3
-[学歴]値=大卒(文系)	
-[基本給]値=226000
-[総合計]pt=0,Expt=0
-[取得タイトル]
-値=知人紹介1回,pt=3,Expt=0,知人紹介2回,pt=0,Expt=1,知人紹介3回,pt=3,Expt=1
-[社会人歴(中途)]IT=0,IT以外=0
-[IT経験]値=0
-[IT以外経験]値=0
-[現在]値=-
-[前々年度]
-[1]年月=-,pt=-,Expt=-
-[2]年月=2022-03,pt=0,Expt=0
-[前年度]
-[1]年月=-,pt=-,Expt=-
-[2]年月=-,pt=-,Expt=-
-[今年度]
-[1]年月=2023-9,pt=0,Expt=0
-[2]年月=-,pt=-,Expt=-
-[過去三年の合計]pt=-,Expt=-
-[総合計]pt=0,Expt=0</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>クン</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>キンゾク</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ネンスウ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="100" eb="103">
-      <t>キホンキュウ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="114" eb="117">
-      <t>ソウゴウケイ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>チジン</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>シャカイ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>ジンレキ</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>チュウト</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="226" eb="227">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="238" eb="239">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="243" eb="245">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="246" eb="247">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="251" eb="253">
-      <t>マエマエ</t>
-    </rPh>
-    <rPh sb="253" eb="254">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="254" eb="255">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="260" eb="262">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="304" eb="305">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="305" eb="306">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="306" eb="307">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="350" eb="353">
-      <t>コンネンド</t>
-    </rPh>
-    <rPh sb="401" eb="405">
-      <t>カコサンネン</t>
-    </rPh>
-    <rPh sb="406" eb="408">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="422" eb="425">
-      <t>ソウゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6762,173 +6058,6 @@
     </rPh>
     <rPh sb="259" eb="260">
       <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員番号]値=999999
-[氏名]値=テスト用CL君
-[生年月日]値=2060-02-01
-[年齢]値=-37
-[入社日]値=2082-12-01	
-[勤続年数]値=-60
-[学歴]値=大卒(理系)
-[基本給]値=229000
-[総合計]pt=2,Expt=0
-[取得タイトル]
-値=[チームで三名部下],pt=2,Expt=1,[基本情報],pt=0,Expt=1
-[社会人歴(中途)]IT=2,IT以外=0
-[IT経験]値=8
-[IT以外経験]値=0
-[現在]値=-
-[前々年度]
-[1]年月=2021-09,pt=-4,Expt=0
-[2]年月=2022-03,pt=0,Expt=0
-[前年度]
-[1]年月=-,pt=-,Expt=-
-[2]年月=-,pt=-,Expt=-
-[今年度]
-[1]年月=2023-9,pt=0,Expt=0
-[2]年月=-,pt=-,Expt=-
-[過去三年の合計]pt=-,Expt=-
-[総合計]pt=0,Expt=0</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>クン</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>キンゾク</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ネンスウ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="103" eb="106">
-      <t>キホンキュウ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="117" eb="120">
-      <t>ソウゴウケイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>シャカイ</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>ジンレキ</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>チュウト</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="211" eb="213">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="214" eb="215">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="221" eb="223">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="226" eb="227">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="231" eb="233">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="234" eb="235">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="239" eb="241">
-      <t>マエマエ</t>
-    </rPh>
-    <rPh sb="241" eb="242">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="242" eb="243">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="248" eb="250">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="299" eb="300">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="300" eb="301">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="301" eb="302">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="345" eb="348">
-      <t>コンネンド</t>
-    </rPh>
-    <rPh sb="396" eb="400">
-      <t>カコサンネン</t>
-    </rPh>
-    <rPh sb="401" eb="403">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="417" eb="420">
-      <t>ソウゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7053,173 +6182,6 @@
     </rPh>
     <rPh sb="245" eb="246">
       <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員番号]値=999999
-[氏名]値=テスト用CL君
-[生年月日]値=1862-07-22
-[年齢]値=161
-[入社日]値=1962-03-21
-[勤続年数]値=61
-[学歴]値=高専卒
-[基本給]値=223000
-[総合計]pt=23,Expt=2
-[取得タイトル]
-値=[チームで三名部下],pt=2,Expt=1,[基本情報],pt=0,Expt=1
-[社会人歴(中途)]IT=0,IT以外=3
-[IT経験]値=0
-[IT以外経験]値=6
-[現在]値=
-[前々年度]
-[1]年月=2021-09,pt=-4,Expt=0
-[2]年月=2022-03,pt=0,Expt=0
-[前年度]
-[1]年月=-,pt=-,Expt=-
-[2]年月=-,pt=-,Expt=-
-[今年度]
-[1]年月=2023-9,pt=0,Expt=0
-[2]年月=-,pt=-,Expt=-
-[過去三年の合計]pt=-,Expt=-
-[総合計]pt=4,Expt=0</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>クン</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>キンゾク</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ネンスウ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="98" eb="101">
-      <t>キホンキュウ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="112" eb="115">
-      <t>ソウゴウケイ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="183" eb="185">
-      <t>シャカイ</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>ジンレキ</t>
-    </rPh>
-    <rPh sb="188" eb="190">
-      <t>チュウト</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="207" eb="209">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="210" eb="211">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="217" eb="219">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="219" eb="221">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="222" eb="223">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="227" eb="229">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="230" eb="231">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="234" eb="236">
-      <t>マエマエ</t>
-    </rPh>
-    <rPh sb="236" eb="237">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="237" eb="238">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="243" eb="245">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="294" eb="295">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="295" eb="296">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="296" eb="297">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="340" eb="343">
-      <t>コンネンド</t>
-    </rPh>
-    <rPh sb="391" eb="395">
-      <t>カコサンネン</t>
-    </rPh>
-    <rPh sb="396" eb="398">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="412" eb="415">
-      <t>ソウゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7478,176 +6440,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[社員番号]値=999999
-[氏名]値=テスト用CL君
-[生年月日]値=1862-07-22
-[年齢]値=161
-[入社日]値=1962-03-21
-[勤続年数]値=61
-[学歴]値=高専卒
-[基本給]値=242000
-[総合計]pt=41,Expt=43
-[取得タイトル]
-値=すべての資格のタイトルと,pt,Expt
-[社会人歴(中途)]IT=0,IT以外=3
-[IT経験]値=0
-[IT以外経験]値=6
-[現在]値=
-[前々年度]
-[1]年月=2021-09,pt=-4,Expt=0
-[2]年月=2022-03,pt=0,Expt=0
-[前年度]
-[1]年月=2022-09,pt=2,Expt=0
-[2]年月=-,pt=-,Expt=-
-[今年度]
-[1]年月=2023-9,pt=0,Expt=0
-[2]年月=-,pt=-,Expt=-
-[過去三年の合計]pt=-,Expt=-
-[総合計]pt=8,Expt=0</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>クン</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>キンゾク</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ネンスウ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ガクレキ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="98" eb="101">
-      <t>キホンキュウ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="112" eb="115">
-      <t>ソウゴウケイ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>シャカイ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>ジンレキ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>チュウト</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="197" eb="199">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>ケイケン</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="207" eb="209">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="210" eb="211">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>マエマエ</t>
-    </rPh>
-    <rPh sb="216" eb="217">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="217" eb="218">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="274" eb="275">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="275" eb="276">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="276" eb="277">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="326" eb="329">
-      <t>コンネンド</t>
-    </rPh>
-    <rPh sb="377" eb="381">
-      <t>カコサンネン</t>
-    </rPh>
-    <rPh sb="382" eb="384">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="398" eb="401">
-      <t>ソウゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;CSVファイルの中身&gt;
 999999,テスト用CL君,1862-07-22,161,1962/3/21,61,高卒,242000,41,43,0,3,2,0,0,0,2,0,0,0,0,0,-,-,2,0,8,0,61年目,100代,Sep-23,-,Sep-22,Mar-23,Sep-21,Mar-22,CC002,0,2,CC003,1,0,CC004,0,1,CC005,0,1,CC006,3,0,CC007,0,1,CC008,3,1,CC009,0,1,CC010,0,3,MJ001,1,1,MJ002,2,1,MJ003,0,1,MJ004,0,2,MJ005,0,2,MQ001,0,1,MQ002,0,2,MQ003,0,2,MQ004,0,2,MQ005,0,2,TJ001,0,1,TJ002,0,1,TJ003,0,1,TJ004,3,0,TJ005,3,1,TJ006,3,1,TJ007,2,1,TJ008,0,1,TQ001,3,0,TQ002,3,0,TQ003,0,1,TQ004,0,2,TQ005,0,1,TQ006,0,2,TQ007,0,1,TQ008,0,1,TQ009,1,0,TQ010,0,1</t>
     <rPh sb="9" eb="11">
@@ -7780,6 +6572,1471 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,1962/3/21,61,1962/3/21,61,-,166000,8,0,0,10,0,0,2,0,2,0,0,0,2,0,0,0,-,-,8,0,61年目,0代,Sep-22,Mar-23,Sep-21,Mar-22,Sep-20,Mar-21</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[自己評価]ボタン押下時[自己評価]画面に遷移することの確認</t>
+    <rPh sb="1" eb="5">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[自己評価]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[自己評価]画面に遷移する</t>
+    <rPh sb="1" eb="5">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[会社評価]</t>
+    <rPh sb="1" eb="5">
+      <t>カイシャヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価完了]</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価完了]ボタン押下時[評価完了]画面に遷移することの確認</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカカンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価完了]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価完了]画面に遷移する</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,1862-07-22,
+161,1962/3/21,61,高卒,
+242000,41,43,0,3,2,0,0,0,2,0,0,0,0,0,-,-,2,0,8,0,
+61年目,100代,
+Sep-23,-,Sep-22,Mar-23,Sep-21,Mar-22,CC002,0,2,CC003,1,0,CC004,0,1,CC005,0,1,CC006,3,0,CC007,0,1,CC008,3,1,CC009,0,1,CC010,0,3,MJ001,1,1,MJ002,2,1,MJ003,0,1,MJ004,0,2,MJ005,0,2,MQ001,0,1,MQ002,0,2,MQ003,0,2,MQ004,0,2,MQ005,0,2,TJ001,0,1,TJ002,0,1,TJ003,0,1,TJ004,3,0,TJ005,3,1,TJ006,3,1,TJ007,2,1,TJ008,0,1,TQ001,3,0,TQ002,3,0,TQ003,0,1,TQ004,0,2,TQ005,0,1,TQ006,0,2,TQ007,0,1,TQ008,0,1,TQ009,1,0,TQ010,0,1</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,1962/3/21,
+61,1962/3/21,61,-,166000,8,0,0,10,0,0,2,0,2,0,0,0,2,0,0,0,-,-,8,0,
+61年目,0代,Sep-22,Mar-23,Sep-21,Mar-22,Sep-20,Mar-21</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[戻る]ボタン押下時[評価出力]画面に遷移することの確認</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[戻る]ボタン押下</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価出力]画面に遷移する</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[スピン-right]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[スピン-right]ボタン押下時</t>
+    <rPh sb="13" eb="16">
+      <t>オウカジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[スピン-right]ボタン押下</t>
+    <rPh sb="13" eb="16">
+      <t>オウカジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照している[社員]から[評価出力]画面にある[社員]の一つ下の[社員]を参照する</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[スピン-left]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[スピン-left]ボタン押下時</t>
+    <rPh sb="12" eb="15">
+      <t>オウカジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[スピン-left]ボタン押下</t>
+    <rPh sb="12" eb="15">
+      <t>オウカジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照している[社員]から[評価出力]画面にある[社員]の一つ上の[社員]を参照する</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員番号]値=999999
+[氏名]値=テスト用CL君
+[生年月日]値=2003-01-01
+[年齢]値=20
+[入社日]値=2023-04-01
+[勤続年数]値=0
+[学歴]値=専門卒(3年)
+[基本給]値=220000
+[総合計]pt=19,Expt=3
+[取得タイトル]
+値=応用情報,pt=0,Expt=2
+[社会人歴(中途)]IT=1,IT以外=1
+[IT経験]値=4
+[IT以外経験]値=2
+[現在]値=0
+[前々年度]
+[1]年月=-,pt=-,Expt=-[2]年月=-,pt=-,Expt=-
+[前年度]
+[1]年月=-,pt=-,Expt=-[2]年月=-,pt=-,Expt=-
+[今年度]
+[1]年月=2023-9,pt=0,Expt=0[2]年月=-,pt=-,Expt=-
+[過去三年の合計]pt=-,Expt=-
+[総合計]pt=0,Expt=0</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ネンスウ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="91" eb="94">
+      <t>センモンソツ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="114" eb="117">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>オウヨウ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ジンレキ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>チュウト</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>マエマエ</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="259" eb="260">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="303" eb="306">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="353" eb="357">
+      <t>カコサンネン</t>
+    </rPh>
+    <rPh sb="358" eb="360">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="374" eb="377">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員番号]値=999999
+[氏名]値=テスト用CL君
+[生年月日]値=1993-01-01
+[年齢]値=30
+[入社日]値=2013-04-01
+[勤続年数]値=10
+[学歴]値=専門卒(4年)
+[基本給]値=156000
+[総合計]pt=39,Expt=2
+[取得タイトル]
+値=PL経験2回,pt=2,Expt=1
+[社会人歴(中途)]IT=3,IT以外=4
+[IT経験]値=12
+[IT以外経験]値=8
+[現在]値=
+[前々年度]
+[1]年月=-,pt=-,Expt=-[2]年月=-,pt=-,Expt=-
+[前年度]
+[1]年月=-,pt=-,Expt=-[2]年月=-,pt=-,Expt=-
+[今年度]
+[1]年月=2023-9,pt=0,Expt=0[2]年月=-,pt=-,Expt=-
+[過去三年の合計]pt=-,Expt=-
+[総合計]pt=0,Expt=0</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ネンスウ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="92" eb="95">
+      <t>センモンソツ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="101" eb="104">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="115" eb="118">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ジンレキ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>チュウト</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>マエマエ</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="224" eb="226">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="261" eb="262">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="263" eb="264">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="306" eb="309">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="356" eb="360">
+      <t>カコサンネン</t>
+    </rPh>
+    <rPh sb="361" eb="363">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="377" eb="380">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員番号]値=999999
+[氏名]値=テスト用CL君
+[生年月日]値=2005-01-01
+[年齢]値=18
+[入社日]値=2020-04-01
+[勤続年数]値=3
+[学歴]値=高卒
+[基本給]値=235000
+[総合計]pt=35,Expt=2
+[取得タイトル]
+値=プロジェクトマネージャー,pt=0,Expt=2
+[社会人歴(中途)]IT=6,IT以外=2
+[IT経験]値=24
+[IT以外経験]値=4
+[現在]値=4
+[前々年度]
+[1]年月=-,pt=-,Expt=-[2]年月=-,pt=-,Expt=-
+[前年度]
+[1]年月=2022-09,pt=2,Expt=-[2]年月=-,pt=-,Expt=-
+[今年度]
+[1]年月=2023-09,pt=0,Expt=0[2]年月=-,pt=-,Expt=-
+[過去三年の合計]pt=-,Expt=-
+[総合計]pt=2,Expt=0</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ネンスウ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>コウソツ</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ジンレキ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>チュウト</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>マエマエ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="263" eb="264">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="264" eb="265">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="313" eb="316">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="364" eb="368">
+      <t>カコサンネン</t>
+    </rPh>
+    <rPh sb="369" eb="371">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="385" eb="388">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員番号]値=999999
+[氏名]値=テスト用CL君
+[生年月日]値=1992-12-01
+[年齢]値=30
+[入社日]値=2020-04-01
+[勤続年数]値=3
+[学歴]値=大卒(文系)	
+[基本給]値=226000
+[総合計]pt=0,Expt=0
+[取得タイトル]
+値=知人紹介1回,pt=3,Expt=0,知人紹介2回,pt=0,Expt=1,知人紹介3回,pt=3,Expt=1
+[社会人歴(中途)]IT=0,IT以外=0
+[IT経験]値=0
+[IT以外経験]値=0
+[現在]値=-
+[前々年度]
+[1]年月=-,pt=-,Expt=-[2]年月=2022-03,pt=0,Expt=0
+[前年度]
+[1]年月=-,pt=-,Expt=-[2]年月=-,pt=-,Expt=-
+[今年度]
+[1]年月=2023-9,pt=0,Expt=0[2]年月=-,pt=-,Expt=-
+[過去三年の合計]pt=-,Expt=-
+[総合計]pt=0,Expt=0</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ネンスウ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="114" eb="117">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>チジン</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>ジンレキ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>チュウト</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="238" eb="239">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="246" eb="247">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="251" eb="253">
+      <t>マエマエ</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="254" eb="255">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="303" eb="304">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="304" eb="305">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="305" eb="306">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="348" eb="351">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="398" eb="402">
+      <t>カコサンネン</t>
+    </rPh>
+    <rPh sb="403" eb="405">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="419" eb="422">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員番号]値=999999
+[氏名]値=テスト用CL君
+[生年月日]値=2060-02-01
+[年齢]値=-37
+[入社日]値=2082-12-01	
+[勤続年数]値=-60
+[学歴]値=大卒(理系)
+[基本給]値=229000
+[総合計]pt=2,Expt=0
+[取得タイトル]
+値=[チームで三名部下],pt=2,Expt=1,[基本情報],pt=0,Expt=1
+[社会人歴(中途)]IT=2,IT以外=0
+[IT経験]値=8
+[IT以外経験]値=0
+[現在]値=-
+[前々年度]
+[1]年月=2021-09,pt=-4,Expt=0[2]年月=2022-03,pt=0,Expt=0
+[前年度]
+[1]年月=-,pt=-,Expt=-[2]年月=-,pt=-,Expt=-
+[今年度]
+[1]年月=2023-9,pt=0,Expt=0[2]年月=-,pt=-,Expt=-
+[過去三年の合計]pt=-,Expt=-
+[総合計]pt=0,Expt=0</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ネンスウ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="103" eb="106">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="117" eb="120">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>ジンレキ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>チュウト</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="234" eb="235">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>マエマエ</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="298" eb="299">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="299" eb="300">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="300" eb="301">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="343" eb="346">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="393" eb="397">
+      <t>カコサンネン</t>
+    </rPh>
+    <rPh sb="398" eb="400">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="414" eb="417">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員番号]値=999999
+[氏名]値=テスト用CL君
+[生年月日]値=1862-07-22
+[年齢]値=161
+[入社日]値=1962-03-21
+[勤続年数]値=61
+[学歴]値=高専卒
+[基本給]値=223000
+[総合計]pt=23,Expt=2
+[取得タイトル]
+値=[チームで三名部下],pt=2,Expt=1,[基本情報],pt=0,Expt=1
+[社会人歴(中途)]IT=0,IT以外=3
+[IT経験]値=0
+[IT以外経験]値=6
+[現在]値=
+[前々年度]
+[1]年月=2021-09,pt=-4,Expt=0[2]年月=2022-03,pt=0,Expt=0
+[前年度]
+[1]年月=-,pt=-,Expt=-[2]年月=-,pt=-,Expt=-
+[今年度]
+[1]年月=2023-9,pt=0,Expt=0[2]年月=-,pt=-,Expt=-
+[過去三年の合計]pt=-,Expt=-
+[総合計]pt=4,Expt=0</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ネンスウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="98" eb="101">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="112" eb="115">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ジンレキ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>チュウト</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>マエマエ</t>
+    </rPh>
+    <rPh sb="236" eb="237">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="293" eb="294">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="294" eb="295">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="295" eb="296">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="338" eb="341">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="388" eb="392">
+      <t>カコサンネン</t>
+    </rPh>
+    <rPh sb="393" eb="395">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="409" eb="412">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員番号]値=999999
+[氏名]値=テスト用CL君
+[生年月日]値=1862-07-22
+[年齢]値=161
+[入社日]値=1962-03-21
+[勤続年数]値=61
+[学歴]値=高専卒
+[基本給]値=242000
+[総合計]pt=41,Expt=43
+[取得タイトル]
+値=すべての資格のタイトルと,pt,Expt
+[社会人歴(中途)]IT=0,IT以外=3
+[IT経験]値=0
+[IT以外経験]値=6
+[現在]値=
+[前々年度]
+[1]年月=2021-09,pt=-4,Expt=0[2]年月=2022-03,pt=0,Expt=0
+[前年度]
+[1]年月=2022-09,pt=2,Expt=0[2]年月=-,pt=-,Expt=-
+[今年度]
+[1]年月=2023-9,pt=0,Expt=0[2]年月=-,pt=-,Expt=-
+[過去三年の合計]pt=-,Expt=-
+[総合計]pt=8,Expt=0</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>クン</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ネンスウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ガクレキ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="98" eb="101">
+      <t>キホンキュウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="112" eb="115">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ジンレキ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>チュウト</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>マエマエ</t>
+    </rPh>
+    <rPh sb="216" eb="217">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="273" eb="274">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="274" eb="275">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="275" eb="276">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="324" eb="327">
+      <t>コンネンド</t>
+    </rPh>
+    <rPh sb="374" eb="378">
+      <t>カコサンネン</t>
+    </rPh>
+    <rPh sb="379" eb="381">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="395" eb="398">
+      <t>ソウゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>[社員番号]値=999999
 [氏名]値=テスト用CL君
 [生年月日]値=1962-03-21	
@@ -7796,14 +8053,11 @@
 [IT以外経験]値=20
 [現在]値=
 [前々年度]
-[1]年月=2020-09,pt=0,Expt=0
-[2]年月=2021-03.pt=2,Expt=0
+[1]年月=2020-09,pt=0,Expt=0[2]年月=2021-03.pt=2,Expt=0
 [前年度]
-[1]年月=2021-09,pt=2,Expt=0
-[2]年月=2022-03,pt=0,Expt=0
+[1]年月=2021-09,pt=2,Expt=0[2]年月=2022-03,pt=0,Expt=0
 [今年度]
-[1]年月=2022-09,pt=2,Expt=0
-[2]年月=2023-03,pt=0,Expt=0
+[1]年月=2022-09,pt=2,Expt=0[2]年月=2023-03,pt=0,Expt=0
 [過去三年の合計]pt=-,Expt=-
 [総合計]pt=8,Expt=0</t>
     <rPh sb="1" eb="3">
@@ -7923,301 +8177,23 @@
     <rPh sb="202" eb="204">
       <t>ネンゲツ</t>
     </rPh>
+    <rPh sb="251" eb="252">
+      <t>ゼン</t>
+    </rPh>
     <rPh sb="252" eb="253">
-      <t>ゼン</t>
+      <t>ネン</t>
     </rPh>
     <rPh sb="253" eb="254">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="254" eb="255">
       <t>ド</t>
     </rPh>
-    <rPh sb="317" eb="320">
+    <rPh sb="315" eb="318">
       <t>コンネンド</t>
     </rPh>
-    <rPh sb="382" eb="386">
+    <rPh sb="379" eb="383">
       <t>カコサンネン</t>
     </rPh>
-    <rPh sb="387" eb="389">
+    <rPh sb="384" eb="386">
       <t>ゴウケイソウゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1962/3/21,61,1962/3/21,61,-,166000,8,0,0,10,0,0,2,0,2,0,0,0,2,0,0,0,-,-,8,0,61年目,0代,Sep-22,Mar-23,Sep-21,Mar-22,Sep-20,Mar-21</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[自己評価]ボタン押下時[自己評価]画面に遷移することの確認</t>
-    <rPh sb="1" eb="5">
-      <t>ジコヒョウカ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[自己評価]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ジコヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[自己評価]画面に遷移する</t>
-    <rPh sb="1" eb="5">
-      <t>ジコヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[会社評価]</t>
-    <rPh sb="1" eb="5">
-      <t>カイシャヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価完了]</t>
-    <rPh sb="1" eb="3">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価完了]ボタン押下時[評価完了]画面に遷移することの確認</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカカンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価完了]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカカンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価完了]画面に遷移する</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカカンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1862-07-22,
-161,1962/3/21,61,高卒,
-242000,41,43,0,3,2,0,0,0,2,0,0,0,0,0,-,-,2,0,8,0,
-61年目,100代,
-Sep-23,-,Sep-22,Mar-23,Sep-21,Mar-22,CC002,0,2,CC003,1,0,CC004,0,1,CC005,0,1,CC006,3,0,CC007,0,1,CC008,3,1,CC009,0,1,CC010,0,3,MJ001,1,1,MJ002,2,1,MJ003,0,1,MJ004,0,2,MJ005,0,2,MQ001,0,1,MQ002,0,2,MQ003,0,2,MQ004,0,2,MQ005,0,2,TJ001,0,1,TJ002,0,1,TJ003,0,1,TJ004,3,0,TJ005,3,1,TJ006,3,1,TJ007,2,1,TJ008,0,1,TQ001,3,0,TQ002,3,0,TQ003,0,1,TQ004,0,2,TQ005,0,1,TQ006,0,2,TQ007,0,1,TQ008,0,1,TQ009,1,0,TQ010,0,1</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1962/3/21,
-61,1962/3/21,61,-,166000,8,0,0,10,0,0,2,0,2,0,0,0,2,0,0,0,-,-,8,0,
-61年目,0代,Sep-22,Mar-23,Sep-21,Mar-22,Sep-20,Mar-21</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[戻る]ボタン押下時[評価出力]画面に遷移することの確認</t>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[戻る]ボタン押下</t>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価出力]画面に遷移する</t>
-    <rPh sb="1" eb="3">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[スピン-right]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[スピン-right]ボタン押下時</t>
-    <rPh sb="13" eb="16">
-      <t>オウカジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[スピン-right]ボタン押下</t>
-    <rPh sb="13" eb="16">
-      <t>オウカジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>参照している[社員]から[評価出力]画面にある[社員]の一つ下の[社員]を参照する</t>
-    <rPh sb="0" eb="2">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[スピン-left]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[スピン-left]ボタン押下時</t>
-    <rPh sb="12" eb="15">
-      <t>オウカジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[スピン-left]ボタン押下</t>
-    <rPh sb="12" eb="15">
-      <t>オウカジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>参照している[社員]から[評価出力]画面にある[社員]の一つ上の[社員]を参照する</t>
-    <rPh sb="0" eb="2">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8657,27 +8633,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -8761,6 +8716,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9078,8 +9054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="F115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9087,10 +9063,12 @@
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="4.375" customWidth="1"/>
-    <col min="4" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="8" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
@@ -9098,70 +9076,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J5" s="2"/>
@@ -9169,56 +9147,56 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="36"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
     </row>
     <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -9733,9 +9711,9 @@
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="15" t="s">
         <v>81</v>
       </c>
@@ -9754,9 +9732,9 @@
       <c r="I27" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="39"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="32"/>
     </row>
     <row r="28" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
@@ -9784,971 +9762,971 @@
       <c r="K28" s="7"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" s="46" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42" t="s">
+    <row r="29" spans="1:12" s="39" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="34"/>
+      <c r="B29" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="34">
         <v>4</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="44"/>
-    </row>
-    <row r="30" spans="1:12" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.4">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47" t="s">
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="37"/>
+    </row>
+    <row r="30" spans="1:12" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="I30" s="48" t="s">
+      <c r="I30" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="49"/>
-    </row>
-    <row r="31" spans="1:12" s="46" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51" t="s">
+      <c r="J30" s="42"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="42"/>
+    </row>
+    <row r="31" spans="1:12" s="39" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="H31" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="52" t="s">
+      <c r="I31" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="53"/>
-    </row>
-    <row r="32" spans="1:12" s="46" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41" t="s">
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" spans="1:12" s="39" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="42" t="s">
+      <c r="H32" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="52" t="s">
+      <c r="I32" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="44"/>
-    </row>
-    <row r="33" spans="1:12" s="46" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41" t="s">
+      <c r="J32" s="37"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="37"/>
+    </row>
+    <row r="33" spans="1:12" s="39" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="H33" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="44"/>
-    </row>
-    <row r="34" spans="1:12" s="46" customFormat="1" ht="243.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41" t="s">
+      <c r="J33" s="37"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" s="39" customFormat="1" ht="243.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H34" s="42" t="s">
+      <c r="H34" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="I34" s="42" t="s">
+      <c r="I34" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="44"/>
-    </row>
-    <row r="35" spans="1:12" s="46" customFormat="1" ht="300" x14ac:dyDescent="0.4">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41" t="s">
+      <c r="J34" s="37"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="37"/>
+    </row>
+    <row r="35" spans="1:12" s="39" customFormat="1" ht="300" x14ac:dyDescent="0.4">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="H35" s="42" t="s">
+      <c r="H35" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="42" t="s">
+      <c r="I35" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="44"/>
-    </row>
-    <row r="36" spans="1:12" s="46" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41" t="s">
+      <c r="J35" s="37"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="37"/>
+    </row>
+    <row r="36" spans="1:12" s="39" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="42" t="s">
+      <c r="G36" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H36" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="42" t="s">
+      <c r="I36" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="44"/>
-    </row>
-    <row r="37" spans="1:12" s="46" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41" t="s">
+      <c r="J36" s="37"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="37"/>
+    </row>
+    <row r="37" spans="1:12" s="39" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="42" t="s">
+      <c r="G37" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="42" t="s">
+      <c r="H37" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="I37" s="42" t="s">
+      <c r="I37" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="44"/>
-    </row>
-    <row r="38" spans="1:12" s="46" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41" t="s">
+      <c r="J37" s="37"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="37"/>
+    </row>
+    <row r="38" spans="1:12" s="39" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="H38" s="42" t="s">
+      <c r="H38" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="I38" s="42" t="s">
+      <c r="I38" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="44"/>
-    </row>
-    <row r="39" spans="1:12" s="46" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41" t="s">
+      <c r="J38" s="37"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="37"/>
+    </row>
+    <row r="39" spans="1:12" s="39" customFormat="1" ht="225" x14ac:dyDescent="0.4">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="42" t="s">
+      <c r="G39" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="H39" s="42" t="s">
+      <c r="H39" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="I39" s="42" t="s">
+      <c r="I39" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="44"/>
-    </row>
-    <row r="40" spans="1:12" s="46" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="55"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="41" t="s">
+      <c r="J39" s="37"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="37"/>
+    </row>
+    <row r="40" spans="1:12" s="39" customFormat="1" ht="225" x14ac:dyDescent="0.4">
+      <c r="A40" s="48"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="H40" s="42" t="s">
+      <c r="H40" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="I40" s="42" t="s">
+      <c r="I40" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="56"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="44"/>
-    </row>
-    <row r="41" spans="1:12" s="46" customFormat="1" ht="375" x14ac:dyDescent="0.4">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="41" t="s">
+      <c r="J40" s="49"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="37"/>
+    </row>
+    <row r="41" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="G41" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="H41" s="42" t="s">
+      <c r="H41" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="I41" s="42" t="s">
+      <c r="I41" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="J41" s="57"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="53"/>
-    </row>
-    <row r="42" spans="1:12" s="46" customFormat="1" ht="375" x14ac:dyDescent="0.4">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="41" t="s">
+      <c r="J41" s="50"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="46"/>
+    </row>
+    <row r="42" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="42" t="s">
+      <c r="H42" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="I42" s="42" t="s">
+      <c r="I42" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="J42" s="57"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="53"/>
-    </row>
-    <row r="43" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="41"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41" t="s">
+      <c r="J42" s="50"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="46"/>
+    </row>
+    <row r="43" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A43" s="34"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G43" s="42" t="s">
+      <c r="G43" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="I43" s="42" t="s">
+      <c r="I43" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="J43" s="44"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="44"/>
-    </row>
-    <row r="44" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="41"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41" t="s">
+      <c r="J43" s="37"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="37"/>
+    </row>
+    <row r="44" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="43" t="s">
+      <c r="F44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="42" t="s">
+      <c r="G44" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="H44" s="42" t="s">
+      <c r="H44" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="I44" s="42" t="s">
+      <c r="I44" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="J44" s="44"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="44"/>
-    </row>
-    <row r="45" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41" t="s">
+      <c r="J44" s="37"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="37"/>
+    </row>
+    <row r="45" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="43" t="s">
+      <c r="F45" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="42" t="s">
+      <c r="G45" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="H45" s="42" t="s">
+      <c r="H45" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I45" s="42" t="s">
+      <c r="I45" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="J45" s="44"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="44"/>
-    </row>
-    <row r="46" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A46" s="41"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41" t="s">
+      <c r="J45" s="37"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="37"/>
+    </row>
+    <row r="46" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="42" t="s">
+      <c r="G46" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="42" t="s">
+      <c r="H46" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="I46" s="42" t="s">
+      <c r="I46" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="J46" s="44"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="44"/>
-    </row>
-    <row r="47" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41" t="s">
+      <c r="J46" s="37"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="37"/>
+    </row>
+    <row r="47" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="42" t="s">
+      <c r="G47" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="H47" s="42" t="s">
+      <c r="H47" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I47" s="42" t="s">
+      <c r="I47" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="J47" s="44"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="44"/>
-    </row>
-    <row r="48" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41" t="s">
+      <c r="J47" s="37"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="37"/>
+    </row>
+    <row r="48" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A48" s="34"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="42" t="s">
+      <c r="G48" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="42" t="s">
+      <c r="H48" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="I48" s="42" t="s">
+      <c r="I48" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="J48" s="44"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="44"/>
-    </row>
-    <row r="49" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41" t="s">
+      <c r="J48" s="37"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="37"/>
+    </row>
+    <row r="49" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="42" t="s">
+      <c r="G49" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="42" t="s">
+      <c r="H49" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="I49" s="42" t="s">
+      <c r="I49" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="J49" s="44"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="44"/>
-    </row>
-    <row r="50" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A50" s="41"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41" t="s">
+      <c r="J49" s="37"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="37"/>
+    </row>
+    <row r="50" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A50" s="34"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="42" t="s">
+      <c r="G50" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="H50" s="42" t="s">
+      <c r="H50" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="I50" s="42" t="s">
+      <c r="I50" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="J50" s="44"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="44"/>
-    </row>
-    <row r="51" spans="1:12" s="46" customFormat="1" ht="375" x14ac:dyDescent="0.4">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41" t="s">
+      <c r="J50" s="37"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="37"/>
+    </row>
+    <row r="51" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A51" s="34"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="F51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="42" t="s">
+      <c r="G51" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H51" s="42" t="s">
+      <c r="H51" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="I51" s="42" t="s">
+      <c r="I51" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="J51" s="44"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="44"/>
-    </row>
-    <row r="52" spans="1:12" s="46" customFormat="1" ht="375" x14ac:dyDescent="0.4">
-      <c r="A52" s="41"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41" t="s">
+      <c r="J51" s="37"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="37"/>
+    </row>
+    <row r="52" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="42" t="s">
+      <c r="G52" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="H52" s="42" t="s">
+      <c r="H52" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="I52" s="42" t="s">
+      <c r="I52" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="J52" s="44"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="44"/>
-    </row>
-    <row r="53" spans="1:12" s="46" customFormat="1" ht="375" x14ac:dyDescent="0.4">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41" t="s">
+      <c r="J52" s="37"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="37"/>
+    </row>
+    <row r="53" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A53" s="34"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F53" s="43" t="s">
+      <c r="F53" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="H53" s="42" t="s">
+      <c r="H53" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="I53" s="42" t="s">
+      <c r="I53" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="J53" s="44"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="44"/>
-    </row>
-    <row r="54" spans="1:12" s="46" customFormat="1" ht="375" x14ac:dyDescent="0.4">
-      <c r="A54" s="41"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41" t="s">
+      <c r="J53" s="37"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="37"/>
+    </row>
+    <row r="54" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A54" s="34"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F54" s="43" t="s">
+      <c r="F54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="H54" s="42" t="s">
+      <c r="H54" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="I54" s="42" t="s">
+      <c r="I54" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="J54" s="44"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="44"/>
-    </row>
-    <row r="55" spans="1:12" s="46" customFormat="1" ht="375" x14ac:dyDescent="0.4">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41" t="s">
+      <c r="J54" s="37"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="37"/>
+    </row>
+    <row r="55" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="H55" s="42" t="s">
+      <c r="H55" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="I55" s="42" t="s">
+      <c r="I55" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="J55" s="44"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="44"/>
-    </row>
-    <row r="56" spans="1:12" s="46" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41" t="s">
+      <c r="J55" s="37"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="37"/>
+    </row>
+    <row r="56" spans="1:12" s="39" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="58" t="s">
+      <c r="F56" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="H56" s="42" t="s">
+      <c r="H56" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="I56" s="42" t="s">
+      <c r="I56" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="J56" s="44"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="44"/>
-    </row>
-    <row r="57" spans="1:12" s="46" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41" t="s">
+      <c r="J56" s="37"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="37"/>
+    </row>
+    <row r="57" spans="1:12" s="39" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="F57" s="58" t="s">
+      <c r="F57" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G57" s="42" t="s">
+      <c r="G57" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="H57" s="42" t="s">
+      <c r="H57" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="I57" s="42" t="s">
+      <c r="I57" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="J57" s="44"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="44"/>
-    </row>
-    <row r="58" spans="1:12" s="46" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41" t="s">
+      <c r="J57" s="37"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="37"/>
+    </row>
+    <row r="58" spans="1:12" s="39" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A58" s="34"/>
+      <c r="B58" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="34">
         <v>5</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="D58" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="E58" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="41" t="s">
+      <c r="F58" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G58" s="42" t="s">
+      <c r="G58" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="H58" s="42" t="s">
+      <c r="H58" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="I58" s="42" t="s">
+      <c r="I58" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="J58" s="44"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="44"/>
-    </row>
-    <row r="59" spans="1:12" s="46" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41" t="s">
+      <c r="J58" s="37"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="37"/>
+    </row>
+    <row r="59" spans="1:12" s="39" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="F59" s="41" t="s">
+      <c r="F59" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="42" t="s">
+      <c r="G59" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="H59" s="42" t="s">
+      <c r="H59" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="I59" s="42" t="s">
+      <c r="I59" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="J59" s="44"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="44"/>
-    </row>
-    <row r="60" spans="1:12" s="46" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="41" t="s">
+      <c r="J59" s="37"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="37"/>
+    </row>
+    <row r="60" spans="1:12" s="39" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F60" s="59" t="s">
+      <c r="F60" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G60" s="42" t="s">
+      <c r="G60" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="H60" s="42" t="s">
+      <c r="H60" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I60" s="42" t="s">
+      <c r="I60" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="J60" s="60"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="44"/>
-    </row>
-    <row r="61" spans="1:12" s="46" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41" t="s">
+      <c r="J60" s="53"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="37"/>
+    </row>
+    <row r="61" spans="1:12" s="39" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="34"/>
+      <c r="B61" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="41">
+      <c r="C61" s="34">
         <v>6</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G61" s="42" t="s">
+      <c r="G61" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="H61" s="41" t="s">
+      <c r="H61" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="42" t="s">
+      <c r="I61" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="J61" s="60"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="44"/>
-    </row>
-    <row r="62" spans="1:12" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.4">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="47" t="s">
+      <c r="J61" s="53"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="37"/>
+    </row>
+    <row r="62" spans="1:12" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="47" t="s">
+      <c r="E62" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="43" t="s">
+      <c r="F62" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="G62" s="48" t="s">
+      <c r="G62" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="H62" s="47" t="s">
+      <c r="H62" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="I62" s="48" t="s">
+      <c r="I62" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="J62" s="44"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="44"/>
-    </row>
-    <row r="63" spans="1:12" s="46" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41" t="s">
+      <c r="J62" s="37"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="37"/>
+    </row>
+    <row r="63" spans="1:12" s="39" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="41"/>
-      <c r="D63" s="42" t="s">
+      <c r="C63" s="34"/>
+      <c r="D63" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="F63" s="59" t="s">
+      <c r="F63" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G63" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="H63" s="41" t="s">
+      <c r="H63" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I63" s="42" t="s">
+      <c r="I63" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="J63" s="60"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="44"/>
-    </row>
-    <row r="64" spans="1:12" s="46" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="41"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41" t="s">
+      <c r="J63" s="53"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="37"/>
+    </row>
+    <row r="64" spans="1:12" s="39" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="F64" s="58" t="s">
+      <c r="F64" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G64" s="42" t="s">
+      <c r="G64" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="H64" s="42" t="s">
+      <c r="H64" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="I64" s="42" t="s">
+      <c r="I64" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="J64" s="44"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="44"/>
-    </row>
-    <row r="65" spans="1:12" s="46" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="41"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41" t="s">
+      <c r="J64" s="37"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="37"/>
+    </row>
+    <row r="65" spans="1:12" s="39" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="F65" s="58" t="s">
+      <c r="F65" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G65" s="42" t="s">
+      <c r="G65" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="H65" s="42" t="s">
+      <c r="H65" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="I65" s="42" t="s">
+      <c r="I65" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="J65" s="44"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="44"/>
-    </row>
-    <row r="66" spans="1:12" s="46" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A66" s="41"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41" t="s">
+      <c r="J65" s="37"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="37"/>
+    </row>
+    <row r="66" spans="1:12" s="39" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="F66" s="58" t="s">
+      <c r="F66" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="42" t="s">
+      <c r="G66" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="H66" s="42" t="s">
+      <c r="H66" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I66" s="42" t="s">
+      <c r="I66" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="J66" s="44"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="44"/>
-    </row>
-    <row r="67" spans="1:12" s="46" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41" t="s">
+      <c r="J66" s="37"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="37"/>
+    </row>
+    <row r="67" spans="1:12" s="39" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A67" s="34"/>
+      <c r="B67" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="41"/>
-      <c r="D67" s="42" t="s">
+      <c r="C67" s="34"/>
+      <c r="D67" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E67" s="41" t="s">
+      <c r="E67" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="F67" s="59" t="s">
+      <c r="F67" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="G67" s="42" t="s">
+      <c r="G67" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="H67" s="41" t="s">
+      <c r="H67" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="42" t="s">
+      <c r="I67" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="J67" s="60"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="44"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="37"/>
     </row>
     <row r="68" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A68" s="8"/>
@@ -10928,37 +10906,37 @@
       <c r="I74" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J74" s="61"/>
+      <c r="J74" s="54"/>
       <c r="K74" s="14"/>
       <c r="L74" s="11"/>
     </row>
-    <row r="75" spans="1:12" s="46" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41" t="s">
+    <row r="75" spans="1:12" s="39" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A75" s="34"/>
+      <c r="B75" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41" t="s">
+      <c r="C75" s="34"/>
+      <c r="D75" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="F75" s="59" t="s">
+      <c r="F75" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="G75" s="42" t="s">
+      <c r="G75" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="H75" s="41" t="s">
+      <c r="H75" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="42" t="s">
+      <c r="I75" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="J75" s="44"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="44"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="37"/>
     </row>
     <row r="76" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A76" s="8"/>
@@ -11022,7 +11000,7 @@
       <c r="E78" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F78" s="62" t="s">
+      <c r="F78" s="55" t="s">
         <v>248</v>
       </c>
       <c r="G78" s="13" t="s">
@@ -11060,7 +11038,7 @@
       <c r="I79" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J79" s="61"/>
+      <c r="J79" s="54"/>
       <c r="K79" s="14"/>
       <c r="L79" s="11"/>
     </row>
@@ -11085,427 +11063,427 @@
       <c r="I80" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J80" s="61"/>
+      <c r="J80" s="54"/>
       <c r="K80" s="14"/>
       <c r="L80" s="11"/>
     </row>
-    <row r="81" spans="1:12" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A81" s="41"/>
-      <c r="B81" s="41" t="s">
+    <row r="81" spans="1:12" s="39" customFormat="1" ht="376.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="34"/>
+      <c r="B81" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41" t="s">
+      <c r="C81" s="34"/>
+      <c r="D81" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E81" s="42" t="s">
+      <c r="E81" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F81" s="42" t="s">
+      <c r="F81" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="G81" s="42" t="s">
+      <c r="G81" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="H81" s="42" t="s">
+      <c r="H81" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I81" s="63" t="s">
+      <c r="I81" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="J81" s="53"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="37"/>
+    </row>
+    <row r="82" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G82" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="J81" s="60"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="44"/>
-    </row>
-    <row r="82" spans="1:12" s="46" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A82" s="41"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="64" t="s">
+      <c r="H82" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I82" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="J82" s="53"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="37"/>
+    </row>
+    <row r="83" spans="1:12" s="39" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F83" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G83" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="H83" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="J83" s="53"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="37"/>
+    </row>
+    <row r="84" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="E84" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F82" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="G82" s="42" t="s">
+      <c r="F84" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G84" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H84" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="H82" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I82" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="J82" s="60"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="44"/>
-    </row>
-    <row r="83" spans="1:12" s="46" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="41"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41" t="s">
+      <c r="I84" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="J84" s="53"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="37"/>
+    </row>
+    <row r="85" spans="1:12" s="39" customFormat="1" ht="385.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="34"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E83" s="42" t="s">
+      <c r="E85" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F83" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="G83" s="42" t="s">
+      <c r="F85" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G85" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="H83" s="42" t="s">
+      <c r="H85" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I83" s="63" t="s">
+      <c r="I85" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="J85" s="53"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="37"/>
+    </row>
+    <row r="86" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F86" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="J83" s="60"/>
-      <c r="K83" s="45"/>
-      <c r="L83" s="44"/>
-    </row>
-    <row r="84" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A84" s="41"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="64" t="s">
+      <c r="G86" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H86" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I86" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="J86" s="37"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="37"/>
+    </row>
+    <row r="87" spans="1:12" s="39" customFormat="1" ht="399" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G87" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="H87" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="J87" s="53"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="37"/>
+    </row>
+    <row r="88" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="41" t="s">
+      <c r="E88" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F84" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="G84" s="42" t="s">
+      <c r="F88" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G88" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H88" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="H84" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I84" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="J84" s="60"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="44"/>
-    </row>
-    <row r="85" spans="1:12" s="46" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="41"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41" t="s">
+      <c r="I88" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="J88" s="53"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="37"/>
+    </row>
+    <row r="89" spans="1:12" s="39" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E85" s="42" t="s">
+      <c r="E89" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F85" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="G85" s="42" t="s">
+      <c r="F89" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="G89" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="H85" s="42" t="s">
+      <c r="H89" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I85" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="J85" s="60"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="44"/>
-    </row>
-    <row r="86" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A86" s="41"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="64" t="s">
+      <c r="I89" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="J89" s="53"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="37"/>
+    </row>
+    <row r="90" spans="1:12" s="39" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="41" t="s">
+      <c r="E90" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F86" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="G86" s="42" t="s">
+      <c r="F90" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="G90" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H90" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="H86" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I86" s="63" t="s">
-        <v>266</v>
-      </c>
-      <c r="J86" s="44"/>
-      <c r="K86" s="45"/>
-      <c r="L86" s="44"/>
-    </row>
-    <row r="87" spans="1:12" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A87" s="41"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41" t="s">
+      <c r="I90" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="J90" s="53"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="37"/>
+    </row>
+    <row r="91" spans="1:12" s="39" customFormat="1" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="34"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E87" s="42" t="s">
+      <c r="E91" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F87" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="G87" s="42" t="s">
+      <c r="F91" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G91" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="H87" s="42" t="s">
+      <c r="H91" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I87" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="J87" s="60"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="44"/>
-    </row>
-    <row r="88" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A88" s="41"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="64" t="s">
+      <c r="I91" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="J91" s="53"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="37"/>
+    </row>
+    <row r="92" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+      <c r="A92" s="34"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="41" t="s">
+      <c r="E92" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F88" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="G88" s="42" t="s">
+      <c r="F92" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G92" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H92" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="H88" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I88" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="J88" s="60"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="44"/>
-    </row>
-    <row r="89" spans="1:12" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A89" s="41"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41" t="s">
+      <c r="I92" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="J92" s="53"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="37"/>
+    </row>
+    <row r="93" spans="1:12" s="39" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="34"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E93" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F89" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="G89" s="42" t="s">
+      <c r="F93" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="G93" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="H89" s="42" t="s">
+      <c r="H93" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I89" s="63" t="s">
+      <c r="I93" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="J93" s="53"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="37"/>
+    </row>
+    <row r="94" spans="1:12" s="39" customFormat="1" ht="375" x14ac:dyDescent="0.4">
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F94" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="J89" s="60"/>
-      <c r="K89" s="45"/>
-      <c r="L89" s="44"/>
-    </row>
-    <row r="90" spans="1:12" s="46" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
-      <c r="A90" s="41"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="64" t="s">
+      <c r="G94" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H94" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I94" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="J94" s="53"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="37"/>
+    </row>
+    <row r="95" spans="1:12" s="39" customFormat="1" ht="366" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="34"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F95" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G95" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="H95" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="J95" s="53"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="37"/>
+    </row>
+    <row r="96" spans="1:12" s="39" customFormat="1" ht="375" x14ac:dyDescent="0.4">
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="41" t="s">
+      <c r="E96" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F90" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="G90" s="42" t="s">
+      <c r="F96" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G96" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H96" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="H90" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I90" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="J90" s="60"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="44"/>
-    </row>
-    <row r="91" spans="1:12" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A91" s="41"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E91" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="F91" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="G91" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="H91" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I91" s="63" t="s">
+      <c r="I96" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="J91" s="60"/>
-      <c r="K91" s="45"/>
-      <c r="L91" s="44"/>
-    </row>
-    <row r="92" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A92" s="41"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E92" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F92" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="G92" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="H92" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I92" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="J92" s="60"/>
-      <c r="K92" s="45"/>
-      <c r="L92" s="44"/>
-    </row>
-    <row r="93" spans="1:12" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A93" s="41"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E93" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="F93" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="G93" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="H93" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I93" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="J93" s="60"/>
-      <c r="K93" s="45"/>
-      <c r="L93" s="44"/>
-    </row>
-    <row r="94" spans="1:12" s="46" customFormat="1" ht="375" x14ac:dyDescent="0.4">
-      <c r="A94" s="41"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E94" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F94" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="G94" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="H94" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I94" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="J94" s="60"/>
-      <c r="K94" s="45"/>
-      <c r="L94" s="44"/>
-    </row>
-    <row r="95" spans="1:12" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A95" s="41"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E95" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="F95" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="G95" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="H95" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I95" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="J95" s="60"/>
-      <c r="K95" s="45"/>
-      <c r="L95" s="44"/>
-    </row>
-    <row r="96" spans="1:12" s="46" customFormat="1" ht="375" x14ac:dyDescent="0.4">
-      <c r="A96" s="41"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E96" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F96" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="G96" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="H96" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I96" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="J96" s="60"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="44"/>
+      <c r="J96" s="53"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="37"/>
     </row>
     <row r="97" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A97" s="8"/>
@@ -11521,15 +11499,15 @@
         <v>20</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="J97" s="61"/>
+        <v>277</v>
+      </c>
+      <c r="J97" s="54"/>
       <c r="K97" s="14"/>
       <c r="L97" s="11"/>
     </row>
@@ -11541,7 +11519,7 @@
         <v>42</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>20</v>
@@ -11555,7 +11533,7 @@
       <c r="I98" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="J98" s="61"/>
+      <c r="J98" s="54"/>
       <c r="K98" s="14"/>
       <c r="L98" s="11"/>
     </row>
@@ -11567,441 +11545,441 @@
         <v>42</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F99" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="J99" s="61"/>
+        <v>282</v>
+      </c>
+      <c r="J99" s="54"/>
       <c r="K99" s="14"/>
       <c r="L99" s="11"/>
     </row>
-    <row r="100" spans="1:12" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A100" s="41"/>
-      <c r="B100" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41" t="s">
+    <row r="100" spans="1:12" s="39" customFormat="1" ht="369" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="34"/>
+      <c r="B100" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E100" s="42" t="s">
+      <c r="E100" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F100" s="42" t="s">
+      <c r="F100" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="G100" s="42" t="s">
+      <c r="G100" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="H100" s="42" t="s">
+      <c r="H100" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I100" s="63" t="s">
+      <c r="I100" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="J100" s="53"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="37"/>
+    </row>
+    <row r="101" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F101" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G101" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="J100" s="60"/>
-      <c r="K100" s="45"/>
-      <c r="L100" s="44"/>
-    </row>
-    <row r="101" spans="1:12" s="46" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A101" s="41"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="64" t="s">
+      <c r="H101" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I101" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="J101" s="53"/>
+      <c r="K101" s="38"/>
+      <c r="L101" s="37"/>
+    </row>
+    <row r="102" spans="1:12" s="39" customFormat="1" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F102" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G102" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="H102" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" s="56" t="s">
+        <v>298</v>
+      </c>
+      <c r="J102" s="53"/>
+      <c r="K102" s="38"/>
+      <c r="L102" s="37"/>
+    </row>
+    <row r="103" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E101" s="41" t="s">
+      <c r="E103" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F101" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="G101" s="42" t="s">
+      <c r="F103" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G103" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H103" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="H101" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I101" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="J101" s="60"/>
-      <c r="K101" s="45"/>
-      <c r="L101" s="44"/>
-    </row>
-    <row r="102" spans="1:12" s="46" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="41"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41" t="s">
+      <c r="I103" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="J103" s="53"/>
+      <c r="K103" s="38"/>
+      <c r="L103" s="37"/>
+    </row>
+    <row r="104" spans="1:12" s="39" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="42" t="s">
+      <c r="E104" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F102" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="G102" s="42" t="s">
+      <c r="F104" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G104" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="H102" s="42" t="s">
+      <c r="H104" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I102" s="63" t="s">
+      <c r="I104" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="J104" s="53"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="37"/>
+    </row>
+    <row r="105" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E105" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F105" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="J102" s="60"/>
-      <c r="K102" s="45"/>
-      <c r="L102" s="44"/>
-    </row>
-    <row r="103" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A103" s="41"/>
-      <c r="B103" s="41"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="64" t="s">
+      <c r="G105" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H105" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I105" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="J105" s="37"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="37"/>
+    </row>
+    <row r="106" spans="1:12" s="39" customFormat="1" ht="366" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E106" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F106" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G106" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="H106" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="J106" s="53"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="37"/>
+    </row>
+    <row r="107" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E103" s="41" t="s">
+      <c r="E107" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F103" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="G103" s="42" t="s">
+      <c r="F107" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G107" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H107" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="H103" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I103" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="J103" s="60"/>
-      <c r="K103" s="45"/>
-      <c r="L103" s="44"/>
-    </row>
-    <row r="104" spans="1:12" s="46" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="41"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="41" t="s">
+      <c r="I107" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="J107" s="53"/>
+      <c r="K107" s="38"/>
+      <c r="L107" s="37"/>
+    </row>
+    <row r="108" spans="1:12" s="39" customFormat="1" ht="366" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="34"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E108" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F104" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="G104" s="42" t="s">
+      <c r="F108" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="G108" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="H104" s="42" t="s">
+      <c r="H108" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I104" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="J104" s="60"/>
-      <c r="K104" s="45"/>
-      <c r="L104" s="44"/>
-    </row>
-    <row r="105" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A105" s="41"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="64" t="s">
+      <c r="I108" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="J108" s="53"/>
+      <c r="K108" s="38"/>
+      <c r="L108" s="37"/>
+    </row>
+    <row r="109" spans="1:12" s="39" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E105" s="41" t="s">
+      <c r="E109" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F105" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="G105" s="42" t="s">
+      <c r="F109" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="G109" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H109" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="H105" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I105" s="63" t="s">
-        <v>266</v>
-      </c>
-      <c r="J105" s="44"/>
-      <c r="K105" s="45"/>
-      <c r="L105" s="44"/>
-    </row>
-    <row r="106" spans="1:12" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A106" s="41"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41" t="s">
+      <c r="I109" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="J109" s="53"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="37"/>
+    </row>
+    <row r="110" spans="1:12" s="39" customFormat="1" ht="367.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="34"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E106" s="42" t="s">
+      <c r="E110" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F106" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="G106" s="42" t="s">
+      <c r="F110" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G110" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="H106" s="42" t="s">
+      <c r="H110" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I106" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="J106" s="60"/>
-      <c r="K106" s="45"/>
-      <c r="L106" s="44"/>
-    </row>
-    <row r="107" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A107" s="41"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="64" t="s">
+      <c r="I110" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="J110" s="53"/>
+      <c r="K110" s="38"/>
+      <c r="L110" s="37"/>
+    </row>
+    <row r="111" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+      <c r="A111" s="34"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E107" s="41" t="s">
+      <c r="E111" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F107" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="G107" s="42" t="s">
+      <c r="F111" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G111" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H111" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="H107" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I107" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="J107" s="60"/>
-      <c r="K107" s="45"/>
-      <c r="L107" s="44"/>
-    </row>
-    <row r="108" spans="1:12" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A108" s="41"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="41" t="s">
+      <c r="I111" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="J111" s="53"/>
+      <c r="K111" s="38"/>
+      <c r="L111" s="37"/>
+    </row>
+    <row r="112" spans="1:12" s="39" customFormat="1" ht="366.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="34"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E108" s="42" t="s">
+      <c r="E112" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F108" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="G108" s="42" t="s">
+      <c r="F112" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="G112" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="H108" s="42" t="s">
+      <c r="H112" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I108" s="63" t="s">
+      <c r="I112" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="J112" s="53"/>
+      <c r="K112" s="38"/>
+      <c r="L112" s="37"/>
+    </row>
+    <row r="113" spans="1:12" s="39" customFormat="1" ht="375" x14ac:dyDescent="0.4">
+      <c r="A113" s="34"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E113" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F113" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="J108" s="60"/>
-      <c r="K108" s="45"/>
-      <c r="L108" s="44"/>
-    </row>
-    <row r="109" spans="1:12" s="46" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
-      <c r="A109" s="41"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="64" t="s">
+      <c r="G113" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H113" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I113" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="J113" s="53"/>
+      <c r="K113" s="38"/>
+      <c r="L113" s="37"/>
+    </row>
+    <row r="114" spans="1:12" s="39" customFormat="1" ht="369" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="34"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E114" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="F114" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G114" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="H114" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="J114" s="53"/>
+      <c r="K114" s="38"/>
+      <c r="L114" s="37"/>
+    </row>
+    <row r="115" spans="1:12" s="39" customFormat="1" ht="375" x14ac:dyDescent="0.4">
+      <c r="A115" s="34"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E109" s="41" t="s">
+      <c r="E115" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F109" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="G109" s="42" t="s">
+      <c r="F115" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="G115" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H115" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="H109" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I109" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="J109" s="60"/>
-      <c r="K109" s="45"/>
-      <c r="L109" s="44"/>
-    </row>
-    <row r="110" spans="1:12" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A110" s="41"/>
-      <c r="B110" s="41"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E110" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="F110" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="G110" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="H110" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I110" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="J110" s="60"/>
-      <c r="K110" s="45"/>
-      <c r="L110" s="44"/>
-    </row>
-    <row r="111" spans="1:12" s="46" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
-      <c r="A111" s="41"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E111" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F111" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="G111" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="H111" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I111" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="J111" s="60"/>
-      <c r="K111" s="45"/>
-      <c r="L111" s="44"/>
-    </row>
-    <row r="112" spans="1:12" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A112" s="41"/>
-      <c r="B112" s="41"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E112" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="F112" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="G112" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="H112" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I112" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="J112" s="60"/>
-      <c r="K112" s="45"/>
-      <c r="L112" s="44"/>
-    </row>
-    <row r="113" spans="1:12" s="46" customFormat="1" ht="375" x14ac:dyDescent="0.4">
-      <c r="A113" s="41"/>
-      <c r="B113" s="41"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E113" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F113" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="G113" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="H113" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I113" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="J113" s="60"/>
-      <c r="K113" s="45"/>
-      <c r="L113" s="44"/>
-    </row>
-    <row r="114" spans="1:12" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A114" s="41"/>
-      <c r="B114" s="41"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E114" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="F114" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="G114" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="H114" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I114" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="J114" s="60"/>
-      <c r="K114" s="45"/>
-      <c r="L114" s="44"/>
-    </row>
-    <row r="115" spans="1:12" s="46" customFormat="1" ht="375" x14ac:dyDescent="0.4">
-      <c r="A115" s="41"/>
-      <c r="B115" s="41"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E115" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F115" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="G115" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="H115" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="I115" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="J115" s="60"/>
-      <c r="K115" s="45"/>
-      <c r="L115" s="44"/>
+      <c r="I115" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="J115" s="53"/>
+      <c r="K115" s="38"/>
+      <c r="L115" s="37"/>
     </row>
     <row r="116" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A116" s="8"/>
@@ -12017,19 +11995,19 @@
         <v>20</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="J116" s="61"/>
+        <v>288</v>
+      </c>
+      <c r="J116" s="54"/>
       <c r="K116" s="14"/>
       <c r="L116" s="11"/>
     </row>
-    <row r="117" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -12037,25 +12015,25 @@
         <v>42</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="J117" s="61"/>
+        <v>292</v>
+      </c>
+      <c r="J117" s="54"/>
       <c r="K117" s="14"/>
       <c r="L117" s="11"/>
     </row>
-    <row r="118" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -12063,21 +12041,21 @@
         <v>42</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="J118" s="61"/>
+        <v>296</v>
+      </c>
+      <c r="J118" s="54"/>
       <c r="K118" s="14"/>
       <c r="L118" s="11"/>
     </row>
@@ -12266,6 +12244,16 @@
   </sheetData>
   <autoFilter ref="A7:N131" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
   <mergeCells count="17">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
@@ -12273,16 +12261,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A1:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト/結合テストチェックリスト.xlsx
+++ b/テスト/結合テストチェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF74BB1-66DC-4E5B-84F5-D0658C83AB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3BFD6A-E17A-41D8-B153-51350A331168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="311">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -8194,6 +8194,90 @@
     </rPh>
     <rPh sb="384" eb="386">
       <t>ゴウケイソウゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[CSV]シートにCSV出力したファイルを張り付け、[個人成績評価表]に張り付けたファイルのデータが表示されていることの確認</t>
+    <rPh sb="12" eb="14">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>コジンセイセキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[個人成績評価表]に張り付けたファイルのデータが表示されている</t>
+    <rPh sb="1" eb="5">
+      <t>コジンセイセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[CSV]シートにCSV出力したファイルを張り付け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[個人成績評価表]</t>
+    <rPh sb="1" eb="7">
+      <t>コジンセイセキヒョウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人成績表</t>
+    <rPh sb="0" eb="4">
+      <t>コジンセイセキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8717,18 +8801,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8737,6 +8809,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9054,8 +9138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="B115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9076,70 +9160,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J5" s="2"/>
@@ -9147,56 +9231,56 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="60" t="s">
+      <c r="K6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="61" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -9546,7 +9630,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
         <v>59</v>
@@ -9628,7 +9712,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="11"/>
     </row>
-    <row r="24" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="18"/>
       <c r="C24" s="3"/>
@@ -9654,7 +9738,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="20"/>
       <c r="C25" s="8"/>
@@ -9710,7 +9794,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="17"/>
     </row>
-    <row r="27" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="75" x14ac:dyDescent="0.4">
       <c r="A27" s="30"/>
       <c r="B27" s="31"/>
       <c r="C27" s="30"/>
@@ -9914,7 +9998,7 @@
       <c r="K34" s="38"/>
       <c r="L34" s="37"/>
     </row>
-    <row r="35" spans="1:12" s="39" customFormat="1" ht="300" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="39" customFormat="1" ht="225" x14ac:dyDescent="0.4">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -9938,7 +10022,7 @@
       <c r="K35" s="38"/>
       <c r="L35" s="37"/>
     </row>
-    <row r="36" spans="1:12" s="39" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="39" customFormat="1" ht="225" x14ac:dyDescent="0.4">
       <c r="A36" s="34"/>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -9962,7 +10046,7 @@
       <c r="K36" s="38"/>
       <c r="L36" s="37"/>
     </row>
-    <row r="37" spans="1:12" s="39" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" s="39" customFormat="1" ht="225" x14ac:dyDescent="0.4">
       <c r="A37" s="34"/>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -9986,7 +10070,7 @@
       <c r="K37" s="38"/>
       <c r="L37" s="37"/>
     </row>
-    <row r="38" spans="1:12" s="39" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" s="39" customFormat="1" ht="225" x14ac:dyDescent="0.4">
       <c r="A38" s="34"/>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -10728,7 +10812,7 @@
       <c r="K67" s="38"/>
       <c r="L67" s="37"/>
     </row>
-    <row r="68" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" ht="75" x14ac:dyDescent="0.4">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -10754,7 +10838,7 @@
       <c r="K68" s="14"/>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -10780,7 +10864,7 @@
       <c r="K69" s="14"/>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -10806,7 +10890,7 @@
       <c r="K70" s="14"/>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -10858,7 +10942,7 @@
       <c r="K72" s="14"/>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" spans="1:12" ht="150" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -10884,7 +10968,7 @@
       <c r="K73" s="14"/>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -10938,7 +11022,7 @@
       <c r="K75" s="38"/>
       <c r="L75" s="37"/>
     </row>
-    <row r="76" spans="1:12" ht="243.75" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" ht="150" x14ac:dyDescent="0.4">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -10964,7 +11048,7 @@
       <c r="K76" s="14"/>
       <c r="L76" s="11"/>
     </row>
-    <row r="77" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -10990,7 +11074,7 @@
       <c r="K77" s="14"/>
       <c r="L77" s="11"/>
     </row>
-    <row r="78" spans="1:12" ht="281.25" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -11016,7 +11100,7 @@
       <c r="K78" s="14"/>
       <c r="L78" s="11"/>
     </row>
-    <row r="79" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -11095,7 +11179,7 @@
       <c r="K81" s="38"/>
       <c r="L81" s="37"/>
     </row>
-    <row r="82" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" s="39" customFormat="1" ht="225" x14ac:dyDescent="0.4">
       <c r="A82" s="34"/>
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
@@ -11147,7 +11231,7 @@
       <c r="K83" s="38"/>
       <c r="L83" s="37"/>
     </row>
-    <row r="84" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" s="39" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
       <c r="A84" s="34"/>
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
@@ -11199,7 +11283,7 @@
       <c r="K85" s="38"/>
       <c r="L85" s="37"/>
     </row>
-    <row r="86" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12" s="39" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A86" s="34"/>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -11251,7 +11335,7 @@
       <c r="K87" s="38"/>
       <c r="L87" s="37"/>
     </row>
-    <row r="88" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12" s="39" customFormat="1" ht="300" x14ac:dyDescent="0.4">
       <c r="A88" s="34"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -11303,7 +11387,7 @@
       <c r="K89" s="38"/>
       <c r="L89" s="37"/>
     </row>
-    <row r="90" spans="1:12" s="39" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12" s="39" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
@@ -11355,7 +11439,7 @@
       <c r="K91" s="38"/>
       <c r="L91" s="37"/>
     </row>
-    <row r="92" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12" s="39" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A92" s="34"/>
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
@@ -11407,7 +11491,7 @@
       <c r="K93" s="38"/>
       <c r="L93" s="37"/>
     </row>
-    <row r="94" spans="1:12" s="39" customFormat="1" ht="375" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12" s="39" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A94" s="34"/>
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
@@ -11459,7 +11543,7 @@
       <c r="K95" s="38"/>
       <c r="L95" s="37"/>
     </row>
-    <row r="96" spans="1:12" s="39" customFormat="1" ht="375" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12" s="39" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
@@ -11591,7 +11675,7 @@
       <c r="K100" s="38"/>
       <c r="L100" s="37"/>
     </row>
-    <row r="101" spans="1:12" s="39" customFormat="1" ht="243.75" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:12" s="39" customFormat="1" ht="225" x14ac:dyDescent="0.4">
       <c r="A101" s="34"/>
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
@@ -11643,7 +11727,7 @@
       <c r="K102" s="38"/>
       <c r="L102" s="37"/>
     </row>
-    <row r="103" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12" s="39" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
       <c r="A103" s="34"/>
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
@@ -11695,7 +11779,7 @@
       <c r="K104" s="38"/>
       <c r="L104" s="37"/>
     </row>
-    <row r="105" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:12" s="39" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
@@ -11747,7 +11831,7 @@
       <c r="K106" s="38"/>
       <c r="L106" s="37"/>
     </row>
-    <row r="107" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:12" s="39" customFormat="1" ht="300" x14ac:dyDescent="0.4">
       <c r="A107" s="34"/>
       <c r="B107" s="34"/>
       <c r="C107" s="34"/>
@@ -11799,7 +11883,7 @@
       <c r="K108" s="38"/>
       <c r="L108" s="37"/>
     </row>
-    <row r="109" spans="1:12" s="39" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12" s="39" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A109" s="34"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
@@ -11851,7 +11935,7 @@
       <c r="K110" s="38"/>
       <c r="L110" s="37"/>
     </row>
-    <row r="111" spans="1:12" s="39" customFormat="1" ht="337.5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12" s="39" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A111" s="34"/>
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
@@ -11903,7 +11987,7 @@
       <c r="K112" s="38"/>
       <c r="L112" s="37"/>
     </row>
-    <row r="113" spans="1:12" s="39" customFormat="1" ht="375" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12" s="39" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A113" s="34"/>
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
@@ -11955,7 +12039,7 @@
       <c r="K114" s="38"/>
       <c r="L114" s="37"/>
     </row>
-    <row r="115" spans="1:12" s="39" customFormat="1" ht="375" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12" s="39" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A115" s="34"/>
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
@@ -12059,22 +12143,35 @@
       <c r="K118" s="14"/>
       <c r="L118" s="11"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12" ht="75" x14ac:dyDescent="0.4">
       <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
+      <c r="B119" s="8" t="s">
+        <v>310</v>
+      </c>
       <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
+      <c r="D119" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>307</v>
+      </c>
       <c r="J119" s="28"/>
       <c r="K119" s="14"/>
       <c r="L119" s="11"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -12244,16 +12341,6 @@
   </sheetData>
   <autoFilter ref="A7:N131" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
   <mergeCells count="17">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
@@ -12261,6 +12348,16 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A1:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト/結合テストチェックリスト.xlsx
+++ b/テスト/結合テストチェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC1CD51-8E31-458A-85EA-DFB6CE641D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804E7CED-98BB-4D4D-BF24-7AFB8AE1133E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="450">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -9225,18 +9225,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[エラーメッセージ]に
-"※備考は200文字以内で入力してください。"
-と表示される</t>
-    <rPh sb="14" eb="16">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[更新確認OK]ボタン押下時
 [備考]の文字数が200桁以上の時のエラーの確認</t>
     <rPh sb="1" eb="3">
@@ -12142,6 +12130,27 @@
   </si>
   <si>
     <t>チェックボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[エラーメッセージ]に
+"※内容を入力してください。"
+"※備考は200文字以内で入力してください。"
+と表示される</t>
+    <rPh sb="30" eb="32">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12424,6 +12433,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12437,6 +12449,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12460,17 +12475,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -12782,8 +12816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
   <dimension ref="A1:L193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:N7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86:G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12801,70 +12836,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="32">
+      <c r="I1" s="34">
         <v>45173</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="28"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="I2" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="28"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="I5" s="2"/>
@@ -12872,52 +12907,52 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
@@ -12944,7 +12979,9 @@
       <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="6"/>
     </row>
@@ -12971,7 +13008,9 @@
       <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="6"/>
     </row>
@@ -12998,7 +13037,9 @@
       <c r="H10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="18" t="s">
+        <v>447</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="6"/>
     </row>
@@ -13025,7 +13066,9 @@
       <c r="H11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="18" t="s">
+        <v>447</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="6"/>
     </row>
@@ -13047,12 +13090,14 @@
         <v>34</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>25</v>
+        <v>448</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="6"/>
     </row>
@@ -13079,7 +13124,9 @@
       <c r="H13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18" t="s">
+        <v>447</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
@@ -13106,7 +13153,9 @@
       <c r="H14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="18" t="s">
+        <v>447</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="6"/>
     </row>
@@ -13133,7 +13182,9 @@
       <c r="H15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="6"/>
     </row>
@@ -13160,7 +13211,9 @@
       <c r="H16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="6"/>
     </row>
@@ -13187,7 +13240,9 @@
       <c r="H17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="K17" s="6"/>
     </row>
@@ -13214,7 +13269,9 @@
       <c r="H18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="6"/>
     </row>
@@ -13241,7 +13298,9 @@
       <c r="H19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="6"/>
     </row>
@@ -13268,7 +13327,9 @@
       <c r="H20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="6"/>
     </row>
@@ -13297,7 +13358,9 @@
       <c r="H21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="6"/>
     </row>
@@ -13324,7 +13387,9 @@
       <c r="H22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="6"/>
     </row>
@@ -13351,7 +13416,9 @@
       <c r="H23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="6"/>
     </row>
@@ -13378,7 +13445,9 @@
       <c r="H24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="6"/>
     </row>
@@ -13405,7 +13474,9 @@
       <c r="H25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="6"/>
     </row>
@@ -13434,7 +13505,9 @@
       <c r="H26" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="6"/>
     </row>
@@ -13461,7 +13534,9 @@
       <c r="H27" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="6"/>
     </row>
@@ -13488,7 +13563,9 @@
       <c r="H28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J28" s="7"/>
       <c r="K28" s="6"/>
     </row>
@@ -13515,7 +13592,9 @@
       <c r="H29" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J29" s="7"/>
       <c r="K29" s="6"/>
     </row>
@@ -13542,7 +13621,9 @@
       <c r="H30" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J30" s="7"/>
       <c r="K30" s="6"/>
     </row>
@@ -14524,7 +14605,7 @@
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>135</v>
@@ -14544,7 +14625,7 @@
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="13"/>
-      <c r="L67" s="35"/>
+      <c r="L67" s="23"/>
     </row>
     <row r="68" spans="1:12" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
@@ -14572,7 +14653,7 @@
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
       <c r="K68" s="13"/>
-      <c r="L68" s="35"/>
+      <c r="L68" s="23"/>
     </row>
     <row r="69" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
@@ -14682,7 +14763,9 @@
       <c r="H72" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I72" s="14"/>
+      <c r="I72" s="14" t="s">
+        <v>447</v>
+      </c>
       <c r="J72" s="13"/>
       <c r="K72" s="14"/>
     </row>
@@ -14709,7 +14792,9 @@
       <c r="H73" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I73" s="14"/>
+      <c r="I73" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J73" s="13"/>
       <c r="K73" s="14"/>
     </row>
@@ -14736,7 +14821,9 @@
       <c r="H74" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I74" s="16"/>
+      <c r="I74" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J74" s="13"/>
       <c r="K74" s="14"/>
     </row>
@@ -14765,7 +14852,9 @@
       <c r="H75" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="I75" s="16"/>
+      <c r="I75" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J75" s="13"/>
       <c r="K75" s="14"/>
     </row>
@@ -14792,7 +14881,9 @@
       <c r="H76" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I76" s="6"/>
+      <c r="I76" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J76" s="7"/>
       <c r="K76" s="6"/>
     </row>
@@ -14819,7 +14910,9 @@
       <c r="H77" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I77" s="8"/>
+      <c r="I77" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J77" s="7"/>
       <c r="K77" s="6"/>
     </row>
@@ -14846,7 +14939,9 @@
       <c r="H78" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I78" s="8"/>
+      <c r="I78" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J78" s="7"/>
       <c r="K78" s="6"/>
     </row>
@@ -14873,7 +14968,9 @@
       <c r="H79" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I79" s="6"/>
+      <c r="I79" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J79" s="7"/>
       <c r="K79" s="6"/>
     </row>
@@ -14900,7 +14997,9 @@
       <c r="H80" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="I80" s="6"/>
+      <c r="I80" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J80" s="7"/>
       <c r="K80" s="6"/>
     </row>
@@ -14927,7 +15026,9 @@
       <c r="H81" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="I81" s="6"/>
+      <c r="I81" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J81" s="7"/>
       <c r="K81" s="6"/>
     </row>
@@ -14954,7 +15055,9 @@
       <c r="H82" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="I82" s="6"/>
+      <c r="I82" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J82" s="7"/>
       <c r="K82" s="6"/>
     </row>
@@ -14981,7 +15084,9 @@
       <c r="H83" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="I83" s="6"/>
+      <c r="I83" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J83" s="7"/>
       <c r="K83" s="6"/>
     </row>
@@ -15006,9 +15111,11 @@
         <v>344</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="I84" s="6"/>
+        <v>449</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J84" s="7"/>
       <c r="K84" s="6"/>
     </row>
@@ -15027,15 +15134,17 @@
         <v>19</v>
       </c>
       <c r="F85" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G85" s="5" t="s">
-        <v>347</v>
-      </c>
       <c r="H85" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="I85" s="6"/>
+        <v>449</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="J85" s="7"/>
       <c r="K85" s="6"/>
     </row>
@@ -15054,13 +15163,13 @@
         <v>19</v>
       </c>
       <c r="F86" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="H86" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="7"/>
@@ -15081,13 +15190,13 @@
         <v>19</v>
       </c>
       <c r="F87" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="G87" s="5" t="s">
-        <v>352</v>
-      </c>
       <c r="H87" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="7"/>
@@ -15108,13 +15217,13 @@
         <v>19</v>
       </c>
       <c r="F88" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="G88" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="H88" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="7"/>
@@ -15135,13 +15244,13 @@
         <v>19</v>
       </c>
       <c r="F89" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="G89" s="5" t="s">
-        <v>356</v>
-      </c>
       <c r="H89" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="7"/>
@@ -15162,13 +15271,13 @@
         <v>19</v>
       </c>
       <c r="F90" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="H90" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>359</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="7"/>
@@ -15189,13 +15298,13 @@
         <v>19</v>
       </c>
       <c r="F91" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="G91" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="H91" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="7"/>
@@ -15216,13 +15325,13 @@
         <v>19</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="7"/>
@@ -15243,13 +15352,13 @@
         <v>19</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="7"/>
@@ -15270,13 +15379,13 @@
         <v>19</v>
       </c>
       <c r="F94" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="H94" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="7"/>
@@ -15297,13 +15406,13 @@
         <v>19</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="7"/>
@@ -15324,13 +15433,13 @@
         <v>19</v>
       </c>
       <c r="F96" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="H96" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>370</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="7"/>
@@ -15351,13 +15460,13 @@
         <v>19</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="7"/>
@@ -15378,13 +15487,13 @@
         <v>320</v>
       </c>
       <c r="F98" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>374</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="7"/>
@@ -15405,13 +15514,13 @@
         <v>320</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="7"/>
@@ -15432,13 +15541,13 @@
         <v>320</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="7"/>
@@ -15459,13 +15568,13 @@
         <v>320</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="7"/>
@@ -15486,13 +15595,13 @@
         <v>320</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="7"/>
@@ -15510,16 +15619,16 @@
         <v>113</v>
       </c>
       <c r="E103" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F103" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="G103" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="H103" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="7"/>
@@ -15537,16 +15646,16 @@
         <v>113</v>
       </c>
       <c r="E104" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G104" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>384</v>
-      </c>
       <c r="H104" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="7"/>
@@ -15564,16 +15673,16 @@
         <v>113</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="7"/>
@@ -15591,16 +15700,16 @@
         <v>113</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="7"/>
@@ -15618,16 +15727,16 @@
         <v>113</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="7"/>
@@ -15638,7 +15747,7 @@
         <v>101</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>41</v>
@@ -15650,13 +15759,13 @@
         <v>204</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="7"/>
@@ -15677,10 +15786,10 @@
         <v>204</v>
       </c>
       <c r="F109" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G109" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>97</v>
@@ -15788,10 +15897,10 @@
         <v>111</v>
       </c>
       <c r="G113" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H113" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="7"/>
@@ -15815,10 +15924,10 @@
         <v>114</v>
       </c>
       <c r="G114" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H114" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="7"/>
@@ -15839,13 +15948,13 @@
         <v>19</v>
       </c>
       <c r="F115" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="H115" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="7"/>
@@ -15866,13 +15975,13 @@
         <v>19</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G116" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="H116" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="7"/>
@@ -15893,13 +16002,13 @@
         <v>19</v>
       </c>
       <c r="F117" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G117" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="H117" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="7"/>
@@ -15920,13 +16029,13 @@
         <v>19</v>
       </c>
       <c r="F118" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="G118" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="H118" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="7"/>
@@ -15947,13 +16056,13 @@
         <v>19</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="7"/>
@@ -15974,13 +16083,13 @@
         <v>19</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="7"/>
@@ -16001,13 +16110,13 @@
         <v>19</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="7"/>
@@ -16028,13 +16137,13 @@
         <v>19</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="7"/>
@@ -16055,13 +16164,13 @@
         <v>19</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="7"/>
@@ -16082,13 +16191,13 @@
         <v>19</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="7"/>
@@ -16109,13 +16218,13 @@
         <v>19</v>
       </c>
       <c r="F125" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G125" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G125" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="H125" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="7"/>
@@ -16136,13 +16245,13 @@
         <v>19</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="7"/>
@@ -16163,13 +16272,13 @@
         <v>19</v>
       </c>
       <c r="F127" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G127" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="H127" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="7"/>
@@ -16190,13 +16299,13 @@
         <v>19</v>
       </c>
       <c r="F128" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G128" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="G128" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="H128" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="7"/>
@@ -16217,13 +16326,13 @@
         <v>320</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G129" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="H129" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="7"/>
@@ -16241,16 +16350,16 @@
         <v>113</v>
       </c>
       <c r="E130" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G130" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="F130" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="G130" s="11" t="s">
+      <c r="H130" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="H130" s="11" t="s">
-        <v>422</v>
       </c>
       <c r="I130" s="12"/>
       <c r="J130" s="13"/>
@@ -17268,25 +17377,25 @@
         <v>161</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D168" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E168" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="F168" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I168" s="6"/>
       <c r="J168" s="7"/>
@@ -17301,19 +17410,19 @@
         <v>80</v>
       </c>
       <c r="D169" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E169" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>425</v>
-      </c>
       <c r="F169" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G169" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="G169" s="4" t="s">
+      <c r="H169" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="I169" s="6"/>
       <c r="J169" s="7"/>
@@ -17334,13 +17443,13 @@
         <v>19</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>108</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I170" s="6"/>
       <c r="J170" s="7"/>
@@ -17355,19 +17464,19 @@
         <v>41</v>
       </c>
       <c r="D171" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F171" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="E171" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F171" s="5" t="s">
+      <c r="G171" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="G171" s="5" t="s">
+      <c r="H171" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="H171" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="I171" s="6"/>
       <c r="J171" s="7"/>
@@ -17382,19 +17491,19 @@
         <v>41</v>
       </c>
       <c r="D172" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F172" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="E172" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F172" s="5" t="s">
+      <c r="G172" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="G172" s="5" t="s">
+      <c r="H172" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="H172" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="I172" s="6"/>
       <c r="J172" s="7"/>
@@ -17409,19 +17518,19 @@
         <v>41</v>
       </c>
       <c r="D173" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E173" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="F173" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="G173" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="G173" s="5" t="s">
+      <c r="H173" s="5" t="s">
         <v>444</v>
-      </c>
-      <c r="H173" s="5" t="s">
-        <v>445</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="7"/>
@@ -17992,6 +18101,14 @@
     <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"〇"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
